--- a/biology/Botanique/Maclura_tinctoria/Maclura_tinctoria.xlsx
+++ b/biology/Botanique/Maclura_tinctoria/Maclura_tinctoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maclura tinctoria est une espèce de plantes dicotylédones de la famille des Moraceae, originaire des régions tropicales d'Amérique. Ce sont des arbres dioïques, de taille moyenne à grande, à feuilles caduques. Le bois de cet arbre fournit une teinture de couleur jaune.
 </t>
@@ -513,14 +525,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (1 juillet 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (1 juillet 2019) :
 Broussonetia plumeri Spreng.
 Broussonetia tinctoria (L.) Dum.Cours.
 Broussonetia xanthoxylon Mart.
 Broussonetia zanthoxylon (L.) Mart.
 Chlorophora mollis Fernald
-Chlorophora tinctoria (L.) Gaud. ex Benth. &amp; Hook. f.[2]
+Chlorophora tinctoria (L.) Gaud. ex Benth. &amp; Hook. f.
 Chlorophora tinctoria (L.) Gaudich.
 Fusticus glabra Raf.
 Fusticus tataiba (L.) Raf.
@@ -540,11 +557,46 @@
 Morus plumiera Steud.
 Morus spinosa Gaudich.
 Morus tataiba Vell.
-Morus tinctoria L.[2]
+Morus tinctoria L.
 Morus zanthoxylon L.
 Procris sieberi Steud.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (1 juillet 2019)[3] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maclura_tinctoria</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maclura_tinctoria</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (1 juillet 2019) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Maclura tinctoria subsp. mora (Griseb.) Vázq. Ávila
 Maclura tinctoria subsp. tinctoria
